--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -69,7 +72,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -72,7 +75,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -75,7 +81,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -81,247 +84,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>74.692442882249566</v>
+        <v>84.81481481481481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>74.340949033391908</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.801405975395426</v>
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.298769771528995</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>73.286467486818978</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.4622144112478</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.843585237258353</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.370826010544818</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.140597539543052</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>81.195079086115996</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.486818980667834</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.110720562390156</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.977152899824247</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.801405975395426</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.328646748681891</v>
+        <v>88.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.850615114235495</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>68.014059753954299</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.880492091388405</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>78.734622144112478</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.96485061511423</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.086115992970122</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>67.486818980667834</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>65.37785588752196</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>65.026362038664317</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.395430579964852</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.583479789103691</v>
+        <v>84.444444444444443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.989455184534265</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.286467486818978</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.947275922671352</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.4622144112478</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>76.625659050966604</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.977152899824247</v>
+        <v>82.962962962962962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>77.328646748681891</v>
+        <v>82.222222222222214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.77152899824253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.474516695957817</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.620386643233736</v>
+        <v>78.518518518518519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.880492091388405</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>67.135325131810191</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.838312829525478</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.340949033391908</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.449912126537782</v>
+        <v>87.037037037037038</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.449912126537782</v>
+        <v>86.296296296296291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.922671353251317</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.098418277680139</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.098418277680139</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.244288224956065</v>
+        <v>78.888888888888886</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.541300527240779</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.813708260105443</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -84,247 +87,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.81481481481481</v>
+        <v>74.692442882249566</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.703703703703695</v>
+        <v>74.340949033391908</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.18518518518519</v>
+        <v>76.801405975395426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>79.629629629629633</v>
+        <v>70.298769771528995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>81.481481481481481</v>
+        <v>73.286467486818978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.481481481481481</v>
+        <v>73.4622144112478</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>88.888888888888886</v>
+        <v>80.843585237258353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.888888888888886</v>
+        <v>81.370826010544818</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.888888888888886</v>
+        <v>80.140597539543052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.518518518518519</v>
+        <v>81.195079086115996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>76.296296296296291</v>
+        <v>67.486818980667834</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>83.333333333333343</v>
+        <v>73.110720562390156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.518518518518519</v>
+        <v>76.977152899824247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.407407407407405</v>
+        <v>76.801405975395426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.148148148148152</v>
+        <v>77.328646748681891</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80</v>
+        <v>64.850615114235495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.851851851851848</v>
+        <v>68.014059753954299</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>84.074074074074076</v>
+        <v>71.880492091388405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.925925925925924</v>
+        <v>78.734622144112478</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.407407407407405</v>
+        <v>79.96485061511423</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.407407407407405</v>
+        <v>79.086115992970122</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>77.777777777777786</v>
+        <v>67.486818980667834</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.407407407407405</v>
+        <v>65.37785588752196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.296296296296291</v>
+        <v>65.026362038664317</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.407407407407405</v>
+        <v>75.395430579964852</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.444444444444443</v>
+        <v>72.583479789103691</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.555555555555557</v>
+        <v>73.989455184534265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>83.333333333333343</v>
+        <v>73.286467486818978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.851851851851848</v>
+        <v>69.947275922671352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.703703703703695</v>
+        <v>73.4622144112478</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.851851851851848</v>
+        <v>76.625659050966604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>82.962962962962962</v>
+        <v>76.977152899824247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.222222222222214</v>
+        <v>77.328646748681891</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>69.77152899824253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>80.370370370370367</v>
+        <v>70.474516695957817</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>78.518518518518519</v>
+        <v>63.620386643233736</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.370370370370367</v>
+        <v>71.880492091388405</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>77.407407407407405</v>
+        <v>67.135325131810191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.407407407407405</v>
+        <v>67.838312829525478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.925925925925924</v>
+        <v>74.340949033391908</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.037037037037038</v>
+        <v>76.449912126537782</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.296296296296291</v>
+        <v>76.449912126537782</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.555555555555557</v>
+        <v>75.922671353251317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.925925925925924</v>
+        <v>76.098418277680139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.555555555555557</v>
+        <v>76.098418277680139</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.888888888888886</v>
+        <v>69.244288224956065</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>79.629629629629633</v>
+        <v>68.541300527240779</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>84.074074074074076</v>
+        <v>73.813708260105443</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -87,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -93,247 +96,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>74.692442882249566</v>
+        <v>84.81481481481481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>74.340949033391908</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.801405975395426</v>
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.298769771528995</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>73.286467486818978</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.4622144112478</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.843585237258353</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.370826010544818</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.140597539543052</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>81.195079086115996</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.486818980667834</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.110720562390156</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.977152899824247</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.801405975395426</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.328646748681891</v>
+        <v>88.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.850615114235495</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>68.014059753954299</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.880492091388405</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>78.734622144112478</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.96485061511423</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.086115992970122</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>67.486818980667834</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>65.37785588752196</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>65.026362038664317</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.395430579964852</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.583479789103691</v>
+        <v>84.444444444444443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.989455184534265</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.286467486818978</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.947275922671352</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.4622144112478</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>76.625659050966604</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.977152899824247</v>
+        <v>82.962962962962962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>77.328646748681891</v>
+        <v>82.222222222222214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.77152899824253</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.474516695957817</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.620386643233736</v>
+        <v>78.518518518518519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.880492091388405</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>67.135325131810191</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.838312829525478</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.340949033391908</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.449912126537782</v>
+        <v>87.037037037037038</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.449912126537782</v>
+        <v>86.296296296296291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.922671353251317</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.098418277680139</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.098418277680139</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.244288224956065</v>
+        <v>78.888888888888886</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.541300527240779</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.813708260105443</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -99,7 +102,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -102,247 +108,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.81481481481481</v>
+        <v>86.141304347826093</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.703703703703695</v>
+        <v>85.326086956521735</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.18518518518519</v>
+        <v>86.41304347826086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>79.629629629629633</v>
+        <v>78.804347826086953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>81.481481481481481</v>
+        <v>79.891304347826093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.481481481481481</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>88.888888888888886</v>
+        <v>89.945652173913047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.888888888888886</v>
+        <v>88.858695652173907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.888888888888886</v>
+        <v>88.58695652173914</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.518518518518519</v>
+        <v>88.858695652173907</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>76.296296296296291</v>
+        <v>73.91304347826086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>83.333333333333343</v>
+        <v>80.706521739130437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.518518518518519</v>
+        <v>87.228260869565219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.407407407407405</v>
+        <v>86.41304347826086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.148148148148152</v>
+        <v>86.956521739130437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80</v>
+        <v>74.728260869565219</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.851851851851848</v>
+        <v>76.902173913043484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>84.074074074074076</v>
+        <v>79.619565217391312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.925925925925924</v>
+        <v>87.228260869565219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.407407407407405</v>
+        <v>88.58695652173914</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.407407407407405</v>
+        <v>88.315217391304344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>77.777777777777786</v>
+        <v>76.08695652173914</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.407407407407405</v>
+        <v>77.173913043478265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.296296296296291</v>
+        <v>75.815217391304344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.407407407407405</v>
+        <v>86.141304347826093</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.444444444444443</v>
+        <v>83.967391304347828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.555555555555557</v>
+        <v>83.152173913043484</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>83.333333333333343</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.851851851851848</v>
+        <v>79.891304347826093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.703703703703695</v>
+        <v>83.152173913043484</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.851851851851848</v>
+        <v>81.521739130434781</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>82.962962962962962</v>
+        <v>83.423913043478265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.222222222222214</v>
+        <v>82.065217391304344</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>80.706521739130437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>80.370370370370367</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>78.518518518518519</v>
+        <v>73.91304347826086</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.370370370370367</v>
+        <v>81.521739130434781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>77.407407407407405</v>
+        <v>79.076086956521735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.407407407407405</v>
+        <v>79.076086956521735</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.925925925925924</v>
+        <v>83.967391304347828</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.037037037037038</v>
+        <v>86.41304347826086</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.296296296296291</v>
+        <v>84.782608695652172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.555555555555557</v>
+        <v>85.054347826086953</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.925925925925924</v>
+        <v>86.141304347826093</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.555555555555557</v>
+        <v>85.869565217391312</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.888888888888886</v>
+        <v>79.076086956521735</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>79.629629629629633</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>84.074074074074076</v>
+        <v>82.608695652173907</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -108,7 +114,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -114,247 +120,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.141304347826093</v>
+        <v>75.246132208157519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>85.326086956521735</v>
+        <v>74.542897327707465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.41304347826086</v>
+        <v>77.215189873417728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>78.804347826086953</v>
+        <v>67.510548523206751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>79.891304347826093</v>
+        <v>70.745428973277072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.25</v>
+        <v>71.589310829817151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>89.945652173913047</v>
+        <v>82.278481012658233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.858695652173907</v>
+        <v>82.278481012658233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.58695652173914</v>
+        <v>81.57524613220815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.858695652173907</v>
+        <v>82.137834036568208</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>73.91304347826086</v>
+        <v>65.682137834036567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>80.706521739130437</v>
+        <v>70.182841068917028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>87.228260869565219</v>
+        <v>76.933895921237692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>86.41304347826086</v>
+        <v>76.793248945147667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>86.956521739130437</v>
+        <v>77.637130801687761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.728260869565219</v>
+        <v>60.900140646976084</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>76.902173913043484</v>
+        <v>65.119549929676509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>79.619565217391312</v>
+        <v>67.791842475386773</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>87.228260869565219</v>
+        <v>79.043600562587898</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.58695652173914</v>
+        <v>80.450070323488049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.315217391304344</v>
+        <v>79.324894514767934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>76.08695652173914</v>
+        <v>64.697609001406477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.173913043478265</v>
+        <v>63.009845288326304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>75.815217391304344</v>
+        <v>61.74402250351617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>86.141304347826093</v>
+        <v>75.386779184247544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.967391304347828</v>
+        <v>72.292545710267234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>83.152173913043484</v>
+        <v>73.55836849507736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>82.608695652173907</v>
+        <v>72.855133614627292</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>79.891304347826093</v>
+        <v>69.338959212376935</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.152173913043484</v>
+        <v>72.433192686357245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.521739130434781</v>
+        <v>75.246132208157519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>83.423913043478265</v>
+        <v>75.949367088607602</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.065217391304344</v>
+        <v>75.949367088607602</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80.706521739130437</v>
+        <v>69.057665260196913</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>81.25</v>
+        <v>70.604781997187061</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>73.91304347826086</v>
+        <v>59.634317862165965</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>81.521739130434781</v>
+        <v>71.167369901547119</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>79.076086956521735</v>
+        <v>67.510548523206751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.076086956521735</v>
+        <v>67.932489451476798</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>83.967391304347828</v>
+        <v>73.277074542897324</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>86.41304347826086</v>
+        <v>77.355836849507725</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>84.782608695652172</v>
+        <v>75.808720112517577</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.054347826086953</v>
+        <v>75.386779184247544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>86.141304347826093</v>
+        <v>77.49648382559775</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.869565217391312</v>
+        <v>76.65260196905767</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>79.076086956521735</v>
+        <v>67.36990154711674</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>75</v>
+        <v>64.838255977496488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>82.608695652173907</v>
+        <v>72.714486638537267</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -120,247 +126,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>75.246132208157519</v>
+        <v>73.980309423347407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>74.542897327707465</v>
+        <v>72.011251758087198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>77.215189873417728</v>
+        <v>74.824191279887486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>67.510548523206751</v>
+        <v>65.682137834036567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>70.745428973277072</v>
+        <v>68.917018284106888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>71.589310829817151</v>
+        <v>68.917018284106888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>82.278481012658233</v>
+        <v>80.309423347398038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>82.278481012658233</v>
+        <v>80.028129395218002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>81.57524613220815</v>
+        <v>80.168776371308013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>82.137834036568208</v>
+        <v>80.59071729957806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>65.682137834036567</v>
+        <v>64.978902953586498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.182841068917028</v>
+        <v>68.073136427566808</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.933895921237692</v>
+        <v>75.808720112517577</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.793248945147667</v>
+        <v>75.808720112517577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.637130801687761</v>
+        <v>75.808720112517577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>60.900140646976084</v>
+        <v>59.493670886075947</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>65.119549929676509</v>
+        <v>63.713080168776372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>67.791842475386773</v>
+        <v>66.526019690576661</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>79.043600562587898</v>
+        <v>77.918424753867782</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>80.450070323488049</v>
+        <v>79.324894514767934</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.324894514767934</v>
+        <v>78.059071729957807</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>64.697609001406477</v>
+        <v>63.713080168776372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>63.009845288326304</v>
+        <v>61.322081575246138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>61.74402250351617</v>
+        <v>60.337552742616026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.386779184247544</v>
+        <v>73.980309423347407</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.292545710267234</v>
+        <v>69.901547116736992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.55836849507736</v>
+        <v>70.46413502109705</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>72.855133614627292</v>
+        <v>70.886075949367083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.338959212376935</v>
+        <v>67.651195499296762</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>72.433192686357245</v>
+        <v>70.46413502109705</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.246132208157519</v>
+        <v>72.433192686357245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>75.949367088607602</v>
+        <v>74.261603375527429</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75.949367088607602</v>
+        <v>73.277074542897324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.057665260196913</v>
+        <v>67.36990154711674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.604781997187061</v>
+        <v>69.057665260196913</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>59.634317862165965</v>
+        <v>58.368495077355846</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.167369901547119</v>
+        <v>69.760900140646982</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>67.510548523206751</v>
+        <v>65.822784810126578</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.932489451476798</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>73.277074542897324</v>
+        <v>71.026722925457094</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>77.355836849507725</v>
+        <v>75.246132208157519</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.808720112517577</v>
+        <v>73.55836849507736</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.386779184247544</v>
+        <v>73.839662447257382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>77.49648382559775</v>
+        <v>75.668073136427566</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.65260196905767</v>
+        <v>75.386779184247544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>67.36990154711674</v>
+        <v>66.244725738396625</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>64.838255977496488</v>
+        <v>63.994374120956401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>72.714486638537267</v>
+        <v>70.323488045007025</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -126,247 +129,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.980309423347407</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.011251758087198</v>
+        <v>72.050816696914694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>74.824191279887486</v>
+        <v>74.047186932849357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>65.682137834036567</v>
+        <v>68.965517241379317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>68.917018284106888</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>68.917018284106888</v>
+        <v>71.324863883847542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.309423347398038</v>
+        <v>79.491833030853002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.028129395218002</v>
+        <v>79.673321234119783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.168776371308013</v>
+        <v>78.765880217785849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.59071729957806</v>
+        <v>80.21778584392014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>64.978902953586498</v>
+        <v>67.150635208711435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>68.073136427566808</v>
+        <v>70.961887477313979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>75.808720112517577</v>
+        <v>76.40653357531761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.808720112517577</v>
+        <v>75.680580762250443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.808720112517577</v>
+        <v>75.680580762250443</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>59.493670886075947</v>
+        <v>63.702359346642467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>63.713080168776372</v>
+        <v>66.969147005444654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>66.526019690576661</v>
+        <v>70.598911070780403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.918424753867782</v>
+        <v>77.132486388384763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.324894514767934</v>
+        <v>78.765880217785849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>78.059071729957807</v>
+        <v>77.495462794918339</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>63.713080168776372</v>
+        <v>66.243194192377501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>61.322081575246138</v>
+        <v>63.520871143375679</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>60.337552742616026</v>
+        <v>63.157894736842103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>73.980309423347407</v>
+        <v>74.410163339382933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>69.901547116736992</v>
+        <v>70.780399274047184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>70.46413502109705</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>70.886075949367083</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>67.651195499296762</v>
+        <v>68.239564428312164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>70.46413502109705</v>
+        <v>71.14337568058076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>72.433192686357245</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.261603375527429</v>
+        <v>74.228675136116152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>73.277074542897324</v>
+        <v>74.410163339382933</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>67.36990154711674</v>
+        <v>68.058076225045369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>69.057665260196913</v>
+        <v>68.60254083484574</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>58.368495077355846</v>
+        <v>62.431941923774957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.760900140646982</v>
+        <v>69.87295825771325</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>65.822784810126578</v>
+        <v>65.154264972776758</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>66.666666666666657</v>
+        <v>66.243194192377501</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>71.026722925457094</v>
+        <v>72.41379310344827</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.246132208157519</v>
+        <v>74.954627949183305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>73.55836849507736</v>
+        <v>74.773139745916524</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>73.839662447257382</v>
+        <v>74.591651542649728</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.668073136427566</v>
+        <v>74.591651542649728</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.386779184247544</v>
+        <v>75.499092558983676</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>66.244725738396625</v>
+        <v>67.876588021778588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>63.994374120956401</v>
+        <v>68.239564428312164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>70.323488045007025</v>
+        <v>71.869328493647913</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -129,247 +132,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.139745916515437</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.050816696914694</v>
+        <v>71.531531531531527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>74.047186932849357</v>
+        <v>73.513513513513516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>68.965517241379317</v>
+        <v>68.468468468468473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>71.506352087114337</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>71.324863883847542</v>
+        <v>70.810810810810807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>79.491833030853002</v>
+        <v>78.918918918918919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>79.673321234119783</v>
+        <v>79.099099099099107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>78.765880217785849</v>
+        <v>78.198198198198199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.21778584392014</v>
+        <v>79.63963963963964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.150635208711435</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.961887477313979</v>
+        <v>70.450450450450447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.40653357531761</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.680580762250443</v>
+        <v>75.13513513513513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.680580762250443</v>
+        <v>75.13513513513513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>63.702359346642467</v>
+        <v>63.243243243243242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>66.969147005444654</v>
+        <v>66.486486486486484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.598911070780403</v>
+        <v>70.090090090090087</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.132486388384763</v>
+        <v>76.576576576576571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>78.765880217785849</v>
+        <v>78.198198198198199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>77.495462794918339</v>
+        <v>76.936936936936945</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>66.243194192377501</v>
+        <v>65.765765765765778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>63.520871143375679</v>
+        <v>63.063063063063062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>63.157894736842103</v>
+        <v>62.702702702702709</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.410163339382933</v>
+        <v>73.873873873873876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>70.780399274047184</v>
+        <v>70.270270270270274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>71.506352087114337</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>71.506352087114337</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>68.239564428312164</v>
+        <v>67.747747747747738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>71.14337568058076</v>
+        <v>70.630630630630634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>73.139745916515437</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.228675136116152</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>74.410163339382933</v>
+        <v>73.873873873873876</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>68.058076225045369</v>
+        <v>67.567567567567565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>68.60254083484574</v>
+        <v>68.108108108108112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>62.431941923774957</v>
+        <v>61.981981981981981</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.87295825771325</v>
+        <v>69.369369369369366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>65.154264972776758</v>
+        <v>64.684684684684697</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>66.243194192377501</v>
+        <v>65.765765765765778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>72.41379310344827</v>
+        <v>71.891891891891888</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>74.954627949183305</v>
+        <v>74.414414414414409</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.773139745916524</v>
+        <v>74.234234234234236</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.591651542649728</v>
+        <v>74.054054054054049</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>74.591651542649728</v>
+        <v>74.054054054054049</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.499092558983676</v>
+        <v>74.954954954954957</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>67.876588021778588</v>
+        <v>67.387387387387392</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.239564428312164</v>
+        <v>67.747747747747738</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>71.869328493647913</v>
+        <v>71.351351351351354</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -132,247 +141,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>72.612612612612608</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>71.531531531531527</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>73.513513513513516</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>68.468468468468473</v>
+        <v>69.729729729729726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>70.990990990990994</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>70.810810810810807</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.918918918918919</v>
+        <v>80.540540540540533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>79.099099099099107</v>
+        <v>81.081081081081081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>78.198198198198199</v>
+        <v>79.459459459459453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>79.63963963963964</v>
+        <v>80.36036036036036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>66.666666666666657</v>
+        <v>67.567567567567565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.450450450450447</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>75.855855855855864</v>
+        <v>76.396396396396398</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.13513513513513</v>
+        <v>76.396396396396398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.13513513513513</v>
+        <v>76.936936936936945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>63.243243243243242</v>
+        <v>64.684684684684697</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>66.486486486486484</v>
+        <v>67.747747747747738</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.090090090090087</v>
+        <v>71.171171171171167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>76.576576576576571</v>
+        <v>77.837837837837839</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>78.198198198198199</v>
+        <v>79.099099099099107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>76.936936936936945</v>
+        <v>78.378378378378372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>65.765765765765778</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>63.063063063063062</v>
+        <v>64.504504504504496</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>62.702702702702709</v>
+        <v>64.324324324324323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>73.873873873873876</v>
+        <v>75.49549549549549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>70.270270270270274</v>
+        <v>72.252252252252248</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>70.990990990990994</v>
+        <v>74.054054054054049</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>70.990990990990994</v>
+        <v>72.972972972972968</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>67.747747747747738</v>
+        <v>69.549549549549553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>70.630630630630634</v>
+        <v>72.972972972972968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>72.612612612612608</v>
+        <v>75.49549549549549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>73.693693693693689</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>73.873873873873876</v>
+        <v>76.396396396396398</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>67.567567567567565</v>
+        <v>69.009009009009006</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>68.108108108108112</v>
+        <v>69.549549549549553</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>61.981981981981981</v>
+        <v>63.063063063063062</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.369369369369366</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>64.684684684684697</v>
+        <v>66.306306306306311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>65.765765765765778</v>
+        <v>66.846846846846844</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>71.891891891891888</v>
+        <v>74.414414414414409</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>74.414414414414409</v>
+        <v>76.396396396396398</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.234234234234236</v>
+        <v>76.756756756756758</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.054054054054049</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>74.054054054054049</v>
+        <v>76.036036036036037</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>74.954954954954957</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>67.387387387387392</v>
+        <v>68.648648648648646</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>67.747747747747738</v>
+        <v>68.468468468468473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>71.351351351351354</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -141,7 +144,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -144,7 +147,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -147,7 +150,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -150,7 +153,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -153,7 +156,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -156,247 +159,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.693693693693689</v>
+        <v>74.228675136116152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>73.333333333333329</v>
+        <v>73.865698729582576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.675675675675677</v>
+        <v>76.225045372050815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>69.729729729729726</v>
+        <v>70.235934664246827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.612612612612608</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.612612612612608</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.540540540540533</v>
+        <v>81.125226860254088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.081081081081081</v>
+        <v>81.669691470054445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.459459459459453</v>
+        <v>80.036297640653359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.36036036036036</v>
+        <v>80.943738656987293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.567567567567565</v>
+        <v>68.058076225045369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>72.612612612612608</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.396396396396398</v>
+        <v>76.950998185117967</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.396396396396398</v>
+        <v>76.950998185117967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>76.936936936936945</v>
+        <v>77.495462794918339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.684684684684697</v>
+        <v>65.154264972776758</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>67.747747747747738</v>
+        <v>68.239564428312164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.171171171171167</v>
+        <v>71.687840290381118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.837837837837839</v>
+        <v>78.402903811252273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.099099099099107</v>
+        <v>79.673321234119783</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>78.378378378378372</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>66.666666666666657</v>
+        <v>67.150635208711435</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>64.504504504504496</v>
+        <v>64.972776769509977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>64.324324324324323</v>
+        <v>64.791288566243196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.49549549549549</v>
+        <v>76.043557168784019</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.252252252252248</v>
+        <v>72.776769509981847</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.054054054054049</v>
+        <v>74.591651542649728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>72.972972972972968</v>
+        <v>73.502722323048999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.549549549549553</v>
+        <v>70.054446460980031</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>72.972972972972968</v>
+        <v>73.502722323048999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.49549549549549</v>
+        <v>76.043557168784019</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>75.855855855855864</v>
+        <v>76.40653357531761</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>76.396396396396398</v>
+        <v>76.950998185117967</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.009009009009006</v>
+        <v>69.509981851179674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>69.549549549549553</v>
+        <v>70.054446460980031</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.063063063063062</v>
+        <v>63.520871143375679</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>70.990990990990994</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>66.306306306306311</v>
+        <v>66.787658802177859</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>66.846846846846844</v>
+        <v>67.332123411978216</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.414414414414409</v>
+        <v>74.954627949183305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.396396396396398</v>
+        <v>76.950998185117967</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.756756756756758</v>
+        <v>77.313974591651544</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.675675675675677</v>
+        <v>76.225045372050815</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.036036036036037</v>
+        <v>76.588021778584391</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.675675675675677</v>
+        <v>76.225045372050815</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68.648648648648646</v>
+        <v>69.147005444646098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.468468468468473</v>
+        <v>68.965517241379317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.693693693693689</v>
+        <v>74.228675136116152</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -159,247 +165,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>74.228675136116152</v>
+        <v>84.81481481481481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>73.865698729582576</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.225045372050815</v>
+        <v>85.18518518518519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.235934664246827</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>73.139745916515437</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.139745916515437</v>
+        <v>81.481481481481481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>81.125226860254088</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.669691470054445</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.036297640653359</v>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.943738656987293</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>68.058076225045369</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.139745916515437</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.950998185117967</v>
+        <v>88.518518518518519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.950998185117967</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.495462794918339</v>
+        <v>88.148148148148152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>65.154264972776758</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>68.239564428312164</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.687840290381118</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>78.402903811252273</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.673321234119783</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>78.94736842105263</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>67.150635208711435</v>
+        <v>77.777777777777786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>64.972776769509977</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>64.791288566243196</v>
+        <v>76.296296296296291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>76.043557168784019</v>
+        <v>87.407407407407405</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.776769509981847</v>
+        <v>84.444444444444443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.591651542649728</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.502722323048999</v>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>70.054446460980031</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.502722323048999</v>
+        <v>83.703703703703695</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>76.043557168784019</v>
+        <v>81.851851851851848</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.40653357531761</v>
+        <v>82.962962962962962</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>76.950998185117967</v>
+        <v>82.222222222222214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.509981851179674</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.054446460980031</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.520871143375679</v>
+        <v>78.518518518518519</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.506352087114337</v>
+        <v>80.370370370370367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>66.787658802177859</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.332123411978216</v>
+        <v>77.407407407407405</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.954627949183305</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.950998185117967</v>
+        <v>87.037037037037038</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>77.313974591651544</v>
+        <v>86.296296296296291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>76.225045372050815</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.588021778584391</v>
+        <v>85.925925925925924</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.225045372050815</v>
+        <v>85.555555555555557</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.147005444646098</v>
+        <v>78.888888888888886</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.965517241379317</v>
+        <v>79.629629629629633</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>74.228675136116152</v>
+        <v>84.074074074074076</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -165,7 +168,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -168,247 +174,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>84.81481481481481</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>83.703703703703695</v>
+        <v>72.050816696914694</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>85.18518518518519</v>
+        <v>74.047186932849357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>79.629629629629633</v>
+        <v>68.965517241379317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>81.481481481481481</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>81.481481481481481</v>
+        <v>71.324863883847542</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>88.888888888888886</v>
+        <v>79.491833030853002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>88.888888888888886</v>
+        <v>79.673321234119783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>88.888888888888886</v>
+        <v>78.765880217785849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>88.518518518518519</v>
+        <v>80.21778584392014</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>76.296296296296291</v>
+        <v>67.150635208711435</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>83.333333333333343</v>
+        <v>70.961887477313979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.518518518518519</v>
+        <v>76.40653357531761</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>87.407407407407405</v>
+        <v>75.680580762250443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.148148148148152</v>
+        <v>75.680580762250443</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>80</v>
+        <v>63.702359346642467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>81.851851851851848</v>
+        <v>66.969147005444654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>84.074074074074076</v>
+        <v>70.598911070780403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>85.925925925925924</v>
+        <v>77.132486388384763</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>87.407407407407405</v>
+        <v>78.765880217785849</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>87.407407407407405</v>
+        <v>77.495462794918339</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>77.777777777777786</v>
+        <v>66.243194192377501</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.407407407407405</v>
+        <v>63.520871143375679</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>76.296296296296291</v>
+        <v>63.157894736842103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.407407407407405</v>
+        <v>74.410163339382933</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>84.444444444444443</v>
+        <v>70.780399274047184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>85.555555555555557</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>83.333333333333343</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>81.851851851851848</v>
+        <v>68.239564428312164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>83.703703703703695</v>
+        <v>71.14337568058076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>81.851851851851848</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>82.962962962962962</v>
+        <v>74.228675136116152</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>82.222222222222214</v>
+        <v>74.410163339382933</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>80</v>
+        <v>68.058076225045369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>80.370370370370367</v>
+        <v>68.60254083484574</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>78.518518518518519</v>
+        <v>62.431941923774957</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>80.370370370370367</v>
+        <v>69.87295825771325</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>77.407407407407405</v>
+        <v>65.154264972776758</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.407407407407405</v>
+        <v>66.243194192377501</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>85.925925925925924</v>
+        <v>72.41379310344827</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>87.037037037037038</v>
+        <v>74.954627949183305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>86.296296296296291</v>
+        <v>74.773139745916524</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>85.555555555555557</v>
+        <v>74.591651542649728</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>85.925925925925924</v>
+        <v>74.591651542649728</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>85.555555555555557</v>
+        <v>75.499092558983676</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>78.888888888888886</v>
+        <v>67.876588021778588</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>79.629629629629633</v>
+        <v>68.239564428312164</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>84.074074074074076</v>
+        <v>71.869328493647913</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -174,7 +183,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -183,247 +192,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.139745916515437</v>
+        <v>74.228675136116152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.050816696914694</v>
+        <v>73.865698729582576</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>74.047186932849357</v>
+        <v>76.225045372050815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>68.965517241379317</v>
+        <v>70.235934664246827</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>71.506352087114337</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>71.324863883847542</v>
+        <v>73.139745916515437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>79.491833030853002</v>
+        <v>80.943738656987293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>79.673321234119783</v>
+        <v>81.669691470054445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>78.765880217785849</v>
+        <v>80.036297640653359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.21778584392014</v>
+        <v>80.943738656987293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.150635208711435</v>
+        <v>68.058076225045369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.961887477313979</v>
+        <v>72.776769509981847</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.40653357531761</v>
+        <v>76.769509981851186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.680580762250443</v>
+        <v>76.950998185117967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.680580762250443</v>
+        <v>77.495462794918339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>63.702359346642467</v>
+        <v>64.791288566243196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>66.969147005444654</v>
+        <v>68.058076225045369</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.598911070780403</v>
+        <v>71.687840290381118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.132486388384763</v>
+        <v>78.402903811252273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>78.765880217785849</v>
+        <v>79.673321234119783</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>77.495462794918339</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>66.243194192377501</v>
+        <v>66.969147005444654</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>63.520871143375679</v>
+        <v>64.791288566243196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>63.157894736842103</v>
+        <v>64.609800362976415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.410163339382933</v>
+        <v>76.043557168784019</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>70.780399274047184</v>
+        <v>72.41379310344827</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>71.506352087114337</v>
+        <v>74.591651542649728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>71.506352087114337</v>
+        <v>73.321234119782218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>68.239564428312164</v>
+        <v>70.054446460980031</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>71.14337568058076</v>
+        <v>73.502722323048999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>73.139745916515437</v>
+        <v>75.862068965517238</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.228675136116152</v>
+        <v>76.40653357531761</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>74.410163339382933</v>
+        <v>76.588021778584391</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>68.058076225045369</v>
+        <v>69.509981851179674</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>68.60254083484574</v>
+        <v>70.054446460980031</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>62.431941923774957</v>
+        <v>63.339382940108891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.87295825771325</v>
+        <v>71.506352087114337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>65.154264972776758</v>
+        <v>66.787658802177859</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>66.243194192377501</v>
+        <v>67.150635208711435</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>72.41379310344827</v>
+        <v>74.954627949183305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>74.954627949183305</v>
+        <v>76.769509981851186</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.773139745916524</v>
+        <v>77.313974591651544</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.591651542649728</v>
+        <v>76.043557168784019</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>74.591651542649728</v>
+        <v>76.40653357531761</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.499092558983676</v>
+        <v>76.225045372050815</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>67.876588021778588</v>
+        <v>68.965517241379317</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.239564428312164</v>
+        <v>68.784029038112521</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>71.869328493647913</v>
+        <v>74.047186932849357</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -192,247 +210,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>74.228675136116152</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>73.865698729582576</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>76.225045372050815</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.235934664246827</v>
+        <v>69.729729729729726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>73.139745916515437</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>73.139745916515437</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.943738656987293</v>
+        <v>80.36036036036036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.669691470054445</v>
+        <v>81.081081081081081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>80.036297640653359</v>
+        <v>79.459459459459453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.943738656987293</v>
+        <v>80.36036036036036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>68.058076225045369</v>
+        <v>67.567567567567565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>72.776769509981847</v>
+        <v>72.252252252252248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.769509981851186</v>
+        <v>76.21621621621621</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.950998185117967</v>
+        <v>76.396396396396398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.495462794918339</v>
+        <v>76.936936936936945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.791288566243196</v>
+        <v>64.324324324324323</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>68.058076225045369</v>
+        <v>67.567567567567565</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.687840290381118</v>
+        <v>71.171171171171167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>78.402903811252273</v>
+        <v>77.837837837837839</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.673321234119783</v>
+        <v>79.099099099099107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>78.94736842105263</v>
+        <v>78.378378378378372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>66.969147005444654</v>
+        <v>66.486486486486484</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>64.791288566243196</v>
+        <v>64.324324324324323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>64.609800362976415</v>
+        <v>64.14414414414415</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>76.043557168784019</v>
+        <v>75.49549549549549</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>72.41379310344827</v>
+        <v>71.891891891891888</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.591651542649728</v>
+        <v>74.054054054054049</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.321234119782218</v>
+        <v>72.792792792792795</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>70.054446460980031</v>
+        <v>69.549549549549553</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.502722323048999</v>
+        <v>72.972972972972968</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.862068965517238</v>
+        <v>75.315315315315317</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.40653357531761</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>76.588021778584391</v>
+        <v>76.036036036036037</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.509981851179674</v>
+        <v>69.009009009009006</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.054446460980031</v>
+        <v>69.549549549549553</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>63.339382940108891</v>
+        <v>62.882882882882882</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>71.506352087114337</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>66.787658802177859</v>
+        <v>66.306306306306311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>67.150635208711435</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.954627949183305</v>
+        <v>74.414414414414409</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.769509981851186</v>
+        <v>76.21621621621621</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>77.313974591651544</v>
+        <v>76.756756756756758</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>76.043557168784019</v>
+        <v>75.49549549549549</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.40653357531761</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>76.225045372050815</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68.965517241379317</v>
+        <v>68.468468468468473</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.784029038112521</v>
+        <v>68.288288288288285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>74.047186932849357</v>
+        <v>73.513513513513516</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -210,7 +213,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -213,247 +216,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.693693693693689</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>73.333333333333329</v>
+        <v>71.531531531531527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.675675675675677</v>
+        <v>73.513513513513516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>69.729729729729726</v>
+        <v>68.468468468468473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.612612612612608</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.612612612612608</v>
+        <v>70.810810810810807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.36036036036036</v>
+        <v>78.918918918918919</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>81.081081081081081</v>
+        <v>79.099099099099107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.459459459459453</v>
+        <v>78.198198198198199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.36036036036036</v>
+        <v>79.63963963963964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.567567567567565</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>72.252252252252248</v>
+        <v>70.450450450450447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>76.21621621621621</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.396396396396398</v>
+        <v>75.13513513513513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>76.936936936936945</v>
+        <v>75.13513513513513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>64.324324324324323</v>
+        <v>63.243243243243242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>67.567567567567565</v>
+        <v>66.486486486486484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.171171171171167</v>
+        <v>70.090090090090087</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.837837837837839</v>
+        <v>76.576576576576571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.099099099099107</v>
+        <v>78.198198198198199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>78.378378378378372</v>
+        <v>76.936936936936945</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>66.486486486486484</v>
+        <v>65.765765765765778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>64.324324324324323</v>
+        <v>63.063063063063062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>64.14414414414415</v>
+        <v>62.702702702702709</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>75.49549549549549</v>
+        <v>73.873873873873876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>71.891891891891888</v>
+        <v>70.270270270270274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.054054054054049</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>72.792792792792795</v>
+        <v>70.990990990990994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.549549549549553</v>
+        <v>67.747747747747738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>72.972972972972968</v>
+        <v>70.630630630630634</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.315315315315317</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>75.855855855855864</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>76.036036036036037</v>
+        <v>73.873873873873876</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>69.009009009009006</v>
+        <v>67.567567567567565</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>69.549549549549553</v>
+        <v>68.108108108108112</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>62.882882882882882</v>
+        <v>61.981981981981981</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>70.990990990990994</v>
+        <v>69.369369369369366</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>66.306306306306311</v>
+        <v>64.684684684684697</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>66.666666666666657</v>
+        <v>65.765765765765778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.414414414414409</v>
+        <v>71.891891891891888</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.21621621621621</v>
+        <v>74.414414414414409</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.756756756756758</v>
+        <v>74.234234234234236</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.49549549549549</v>
+        <v>74.054054054054049</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.855855855855864</v>
+        <v>74.054054054054049</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.675675675675677</v>
+        <v>74.954954954954957</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68.468468468468473</v>
+        <v>67.387387387387392</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.288288288288285</v>
+        <v>67.747747747747738</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.513513513513516</v>
+        <v>71.351351351351354</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -208,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.16796875" customWidth="true"/>
@@ -216,247 +225,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>72.612612612612608</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>71.531531531531527</v>
+        <v>72.972972972972968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>73.513513513513516</v>
+        <v>75.315315315315317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>68.468468468468473</v>
+        <v>69.009009009009006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>70.990990990990994</v>
+        <v>72.432432432432435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>70.810810810810807</v>
+        <v>72.252252252252248</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>78.918918918918919</v>
+        <v>80.36036036036036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>79.099099099099107</v>
+        <v>80.900900900900893</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>78.198198198198199</v>
+        <v>79.459459459459453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>79.63963963963964</v>
+        <v>80.36036036036036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>66.666666666666657</v>
+        <v>67.387387387387392</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>70.450450450450447</v>
+        <v>72.252252252252248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>75.855855855855864</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.13513513513513</v>
+        <v>76.036036036036037</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.13513513513513</v>
+        <v>76.756756756756758</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>63.243243243243242</v>
+        <v>63.78378378378379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>66.486486486486484</v>
+        <v>67.207207207207205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.090090090090087</v>
+        <v>70.630630630630634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>76.576576576576571</v>
+        <v>77.837837837837839</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>78.198198198198199</v>
+        <v>79.099099099099107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>76.936936936936945</v>
+        <v>78.018018018018026</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>65.765765765765778</v>
+        <v>66.306306306306311</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>63.063063063063062</v>
+        <v>63.963963963963963</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>62.702702702702709</v>
+        <v>63.603603603603609</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>73.873873873873876</v>
+        <v>74.954954954954957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>70.270270270270274</v>
+        <v>71.711711711711715</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>70.990990990990994</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>70.990990990990994</v>
+        <v>72.432432432432435</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>67.747747747747738</v>
+        <v>69.369369369369366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>70.630630630630634</v>
+        <v>72.612612612612608</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>72.612612612612608</v>
+        <v>74.234234234234236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>73.693693693693689</v>
+        <v>74.954954954954957</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>73.873873873873876</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>67.567567567567565</v>
+        <v>68.108108108108112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>68.108108108108112</v>
+        <v>69.189189189189193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>61.981981981981981</v>
+        <v>62.342342342342342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.369369369369366</v>
+        <v>70.270270270270274</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>64.684684684684697</v>
+        <v>66.126126126126124</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>65.765765765765778</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>71.891891891891888</v>
+        <v>73.693693693693689</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>74.414414414414409</v>
+        <v>76.21621621621621</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.234234234234236</v>
+        <v>76.576576576576571</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.054054054054049</v>
+        <v>75.49549549549549</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>74.054054054054049</v>
+        <v>75.855855855855864</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>74.954954954954957</v>
+        <v>75.315315315315317</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>67.387387387387392</v>
+        <v>68.108108108108112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>67.747747747747738</v>
+        <v>68.108108108108112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>71.351351351351354</v>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>81.261261261261268</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -225,252 +243,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>73.333333333333329</v>
+        <v>75.675675675675677</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.972972972972968</v>
+        <v>74.662162162162161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.315315315315317</v>
+        <v>75.506756756756758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>69.009009009009006</v>
+        <v>66.047297297297305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.432432432432435</v>
+        <v>70.439189189189193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.252252252252248</v>
+        <v>70.101351351351354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>80.36036036036036</v>
+        <v>79.391891891891902</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>80.900900900900893</v>
+        <v>82.263513513513516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>79.459459459459453</v>
+        <v>80.574324324324323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>80.36036036036036</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>67.387387387387392</v>
+        <v>64.695945945945937</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>72.252252252252248</v>
+        <v>68.918918918918919</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>75.675675675675677</v>
+        <v>73.141891891891902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>76.036036036036037</v>
+        <v>74.155405405405403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>76.756756756756758</v>
+        <v>73.817567567567565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>63.78378378378379</v>
+        <v>64.020270270270274</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>67.207207207207205</v>
+        <v>67.736486486486484</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>70.630630630630634</v>
+        <v>70.777027027027032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.837837837837839</v>
+        <v>76.520270270270274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>79.099099099099107</v>
+        <v>77.027027027027032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>78.018018018018026</v>
+        <v>76.689189189189193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>66.306306306306311</v>
+        <v>63.851351351351347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>63.963963963963963</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>63.603603603603609</v>
+        <v>63.006756756756758</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.954954954954957</v>
+        <v>74.662162162162161</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>71.711711711711715</v>
+        <v>69.932432432432435</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>73.693693693693689</v>
+        <v>73.648648648648646</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>72.432432432432435</v>
+        <v>70.777027027027032</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.369369369369366</v>
+        <v>67.229729729729726</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>72.612612612612608</v>
+        <v>68.581081081081081</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>74.234234234234236</v>
+        <v>73.986486486486484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.954954954954957</v>
+        <v>74.493243243243242</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75.855855855855864</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>68.108108108108112</v>
+        <v>65.709459459459467</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>69.189189189189193</v>
+        <v>67.229729729729726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>62.342342342342342</v>
+        <v>58.108108108108105</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>70.270270270270274</v>
+        <v>69.087837837837839</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>66.126126126126124</v>
+        <v>65.202702702702695</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>66.666666666666657</v>
+        <v>65.540540540540533</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>73.693693693693689</v>
+        <v>72.297297297297305</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.21621621621621</v>
+        <v>72.804054054054063</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>76.576576576576571</v>
+        <v>75.168918918918919</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.49549549549549</v>
+        <v>73.986486486486484</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.855855855855864</v>
+        <v>75.168918918918919</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.315315315315317</v>
+        <v>74.155405405405403</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68.108108108108112</v>
+        <v>67.905405405405403</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>68.108108108108112</v>
+        <v>65.878378378378372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>73.333333333333329</v>
+        <v>74.324324324324323</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>81.261261261261268</v>
+        <v>79.729729729729726</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -243,7 +246,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -246,7 +249,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -411,7 +414,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75</v>
+        <v>74.831081081081081</v>
       </c>
     </row>
     <row r="35">
@@ -436,7 +439,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>65.202702702702695</v>
+        <v>65.03378378378379</v>
       </c>
     </row>
     <row r="40">
@@ -486,7 +489,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>74.324324324324323</v>
+        <v>74.155405405405403</v>
       </c>
     </row>
     <row r="50">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -249,7 +267,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>HK_G_acc_LT</t>
+  </si>
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -267,7 +270,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="69" uniqueCount="68">
   <si>
     <t>HK_G_acc_LT</t>
   </si>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -261,11 +261,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.16796875" customWidth="true"/>
+    <col min="1" max="1" width="11.90625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Thresholding/LocalT2/HK_G_acc_LT.xlsx
+++ b/Thresholding/LocalT2/HK_G_acc_LT.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="70" uniqueCount="68">
   <si>
     <t>HK_G_acc_LT</t>
   </si>
